--- a/Base-宽表/用户宽表整理/用户款表首次消费门店整理.xlsx
+++ b/Base-宽表/用户宽表整理/用户款表首次消费门店整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="用户款表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="158">
   <si>
     <t>df_user_profile</t>
   </si>
@@ -355,10 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>product_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int(11)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,10 +518,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>order_sku_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(40)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -606,18 +598,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>last_trading_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>末次交易金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>last_item_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int(11)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -638,19 +622,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>last_order_eshop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>last_order_store_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>末次消费门店id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_order_cirycode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -818,6 +794,34 @@
   </si>
   <si>
     <t>tiny_dispatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_order_item_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_order_trading_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末次消费门店no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_order_eshop_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_order_ciry_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_order_storeno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1000,6 +1004,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1035,9 +1042,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1333,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1349,12 +1353,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="3" t="s">
@@ -1368,7 +1372,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1382,7 +1386,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1394,7 +1398,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1406,19 +1410,19 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="24"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1430,7 +1434,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1442,7 +1446,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
@@ -1454,7 +1458,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="42.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="4" t="s">
         <v>38</v>
       </c>
@@ -1466,321 +1470,333 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="23" t="s">
-        <v>133</v>
+      <c r="A11" s="24" t="s">
+        <v>127</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="24"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A16" s="24"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18" s="25"/>
+      <c r="B18" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" s="25"/>
+      <c r="B19" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="6" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="25"/>
+      <c r="B20" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="24"/>
-      <c r="B21" s="4" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="25"/>
+      <c r="B21" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="25"/>
+      <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="26"/>
-      <c r="B23" s="4" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="27"/>
+      <c r="B24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="26"/>
-      <c r="B24" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="7" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="27"/>
+      <c r="B25" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="26"/>
-      <c r="B25" s="6" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="27"/>
+      <c r="B26" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="26"/>
-      <c r="B26" s="6" t="s">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="27"/>
+      <c r="B27" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="26"/>
-      <c r="B27" s="18" t="s">
-        <v>154</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="26"/>
-      <c r="B28" s="6" t="s">
-        <v>50</v>
+      <c r="A28" s="27"/>
+      <c r="B28" s="18" t="s">
+        <v>148</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="26"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="26"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="20"/>
-      <c r="B32" s="4" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="21"/>
+      <c r="B33" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="20"/>
-      <c r="B33" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="20"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="21"/>
+      <c r="B35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="B37" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="B38" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A23:A31"/>
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1793,7 +1809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1805,11 +1821,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="A1" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
@@ -1824,35 +1840,35 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1869,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="14.25"/>
@@ -1881,12 +1897,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A1" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="11" t="s">
@@ -1896,216 +1912,216 @@
         <v>2</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A3" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="29"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="28" t="s">
-        <v>108</v>
+      <c r="A5" s="29" t="s">
+        <v>106</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="30"/>
+      <c r="B6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="29"/>
-      <c r="B6" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>91</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="29"/>
+      <c r="B9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="29"/>
+      <c r="B10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="29"/>
+      <c r="B11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="29"/>
+      <c r="B12" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="29"/>
+      <c r="B13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="29"/>
+      <c r="B14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="12" customFormat="1">
+      <c r="A15" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="28"/>
-      <c r="B9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="28"/>
-      <c r="B10" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="28"/>
-      <c r="B11" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="28"/>
-      <c r="B12" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="28"/>
-      <c r="B13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="28"/>
-      <c r="B14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="12" customFormat="1">
-      <c r="A15" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="9" t="s">
+    </row>
+    <row r="16" spans="1:4" s="12" customFormat="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="15" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" s="12" customFormat="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="16" t="s">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="29"/>
+      <c r="B17" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="28"/>
-      <c r="B17" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="D17" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="28"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="28"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>26</v>
@@ -2117,10 +2133,10 @@
         <v>44</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2128,10 +2144,10 @@
         <v>46</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
